--- a/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.386539051174762</v>
+        <v>-1.286856316077528</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.386090884118477</v>
+        <v>-3.2499289173975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.127090426948154</v>
+        <v>-1.050936904338739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.220685615967685</v>
+        <v>-1.053691164560864</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.587245495468773</v>
+        <v>-1.640282609584357</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8253412537011963</v>
+        <v>0.8384665417708588</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9589300418193339</v>
+        <v>-0.8165143891039039</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.876168586648362</v>
+        <v>-1.950935946282996</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3563227269138219</v>
+        <v>0.5035139788679548</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.071844956767624</v>
+        <v>2.087289269068589</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.6856569302331871</v>
+        <v>-0.4721727766722157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.698224767409255</v>
+        <v>2.782509016879197</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.276904588850197</v>
+        <v>1.437529518596613</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9844499363586154</v>
+        <v>1.024367261040588</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.83100789709536</v>
+        <v>3.957786630636746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.082411312436019</v>
+        <v>1.20313759608082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.06796581787767031</v>
+        <v>-0.01373770825536936</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.711851917595737</v>
+        <v>2.895268154874544</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3500449791242223</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5658455423291696</v>
+        <v>0.5658455423291693</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.373796712336376</v>
+        <v>-0.3620523686974789</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8278525223497006</v>
+        <v>-0.8147651666900676</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3156512085508529</v>
+        <v>-0.3003232929847923</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.391372199226333</v>
+        <v>-0.355593764162166</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.509213825027018</v>
+        <v>-0.5195022668609202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2350184427153328</v>
+        <v>0.243870223407133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2870758597068317</v>
+        <v>-0.2499057884822326</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5730385148676829</v>
+        <v>-0.5847614198358551</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09117162359077231</v>
+        <v>0.137398757990396</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8405285254037794</v>
+        <v>0.8682926465833459</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2262584088316565</v>
+        <v>-0.1782549684326596</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.04932910004647</v>
+        <v>1.062413881685901</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6111193858660979</v>
+        <v>0.7703532728283444</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5267477071391262</v>
+        <v>0.5091121634795348</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.971736341067875</v>
+        <v>1.989081285063785</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4570166459307359</v>
+        <v>0.5146947034140753</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.005569247146849873</v>
+        <v>0.01191017058901432</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.133876421166684</v>
+        <v>1.221907465055703</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.1515262804150416</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6787358703308106</v>
+        <v>0.6787358703308103</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.322379149925912</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5307681272485401</v>
+        <v>0.5175339273616028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08175422215427773</v>
+        <v>0.04832398742246841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2505029101983589</v>
+        <v>0.1941187669806128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.05687435918239914</v>
+        <v>-0.049056523814982</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.036228420541463</v>
+        <v>-1.193893050791502</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2484464247233674</v>
+        <v>-0.2564522442318674</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6234628002960079</v>
+        <v>0.6390479146156285</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2802395584366939</v>
+        <v>-0.2045449615587609</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2565137488659867</v>
+        <v>0.2557608605003714</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.525860255075982</v>
+        <v>2.530187450534487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.775187203412989</v>
+        <v>1.766997189907097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.055750924749696</v>
+        <v>2.015337018789771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.277859393570914</v>
+        <v>2.247225714609987</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9002777316520321</v>
+        <v>0.7548547081302235</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.657396607205322</v>
+        <v>1.657168234713218</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.163942266726435</v>
+        <v>2.107743608096875</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.009985168542554</v>
+        <v>1.118186036687568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.554065725229225</v>
+        <v>1.532147355732934</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.06821733265652243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3055677901249066</v>
+        <v>0.3055677901249064</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7607970211345406</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2585725840040143</v>
+        <v>0.3171811881236371</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02041028399709287</v>
+        <v>0.00284472356390198</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.09324823566928804</v>
+        <v>0.06132227034121184</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03818556178475503</v>
+        <v>-0.02398782143483368</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3878845984734806</v>
+        <v>-0.4251917918074617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1123472384437447</v>
+        <v>-0.09482313187094925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2913085580240762</v>
+        <v>0.2765660926274696</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1295943631796503</v>
+        <v>-0.1072088884276104</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1175204957766464</v>
+        <v>0.1027411963807844</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.786757857679942</v>
+        <v>2.916868722485131</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.960070199691532</v>
+        <v>1.942509641156814</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.220755302958325</v>
+        <v>2.081299792729524</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.378724298692855</v>
+        <v>1.330659223531021</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5494270536353555</v>
+        <v>0.4679579951932877</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9959449891297307</v>
+        <v>1.036463171444656</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.503717636122961</v>
+        <v>1.480561397730185</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7149754388506095</v>
+        <v>0.8211009731682251</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.10760114787687</v>
+        <v>1.089374706481596</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.770503171517174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2610403200428517</v>
+        <v>0.2610403200428515</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2781885923524096</v>
@@ -1083,7 +1083,7 @@
         <v>1.451639087777214</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.530497282489001</v>
+        <v>1.530497282489</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.711070051563132</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2841427862394513</v>
+        <v>-0.2720734806210513</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3898341412468427</v>
+        <v>0.3989103189575949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9469225257608902</v>
+        <v>-1.040931364347106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.157483137430533</v>
+        <v>-0.9934234261006784</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.1777238040741283</v>
+        <v>-0.1461541819843162</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.01142850389806136</v>
+        <v>0.1329488313556748</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2381675748877949</v>
+        <v>-0.3609272910369097</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.528931323929824</v>
+        <v>0.4708765140957094</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.0216674514704047</v>
+        <v>-0.05817928401249358</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.152331663466414</v>
+        <v>3.313376996932217</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.646891473515433</v>
+        <v>3.521679726059714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.202190421593315</v>
+        <v>1.225113132125185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.897336048708063</v>
+        <v>2.232840478513809</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.582682064793769</v>
+        <v>3.302754069740991</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.987210870629244</v>
+        <v>2.9750057237215</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.036634667215671</v>
+        <v>2.092362910077192</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.888319609711735</v>
+        <v>2.892679558429414</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.815528480271629</v>
+        <v>1.848795167208135</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>2.16183189849777</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.318737237945258</v>
+        <v>0.3187372379452578</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2281148625476377</v>
@@ -1188,7 +1188,7 @@
         <v>1.190345183376853</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.255008964502162</v>
+        <v>1.255008964502161</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.7077898893678477</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.461844919728591</v>
+        <v>-0.4522745227209836</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1135655305659336</v>
+        <v>-0.2071765531357939</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6901467997069898</v>
+        <v>-0.7558466167785408</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7261014881318766</v>
+        <v>-0.6539109989334608</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.272774957493934</v>
+        <v>-0.2669460084641349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1398547588971092</v>
+        <v>-0.08109418278333824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3093486028389952</v>
+        <v>-0.2981176921807173</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2420891021066348</v>
+        <v>0.1757958505850445</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04075827841702347</v>
+        <v>-0.1191295802273605</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>10.20848027404094</v>
+        <v>10.25972136044323</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>11.0460642829608</v>
+        <v>11.06352339407168</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.064188711551807</v>
+        <v>4.546335330353744</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.969614545862817</v>
+        <v>3.694968546126341</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.381887240651976</v>
+        <v>5.185263973430684</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.744845044491801</v>
+        <v>5.808310707517464</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.072957558683092</v>
+        <v>3.180099153436656</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.857490408254717</v>
+        <v>4.366891714559284</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.322219987152488</v>
+        <v>3.075331520568606</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.2559033278724414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5433368766531912</v>
+        <v>0.5433368766531915</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6471143731732243</v>
@@ -1306,7 +1306,7 @@
         <v>0.1317897654596309</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8254668256690519</v>
+        <v>0.8254668256690523</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.274241074190685</v>
+        <v>0.3379360337705977</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4373630173962187</v>
+        <v>-0.4580201514659158</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1339588882035169</v>
+        <v>-0.2088386167439412</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1420286605632092</v>
+        <v>-0.06676019602893431</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7676900018316775</v>
+        <v>-0.7438771922424572</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3436514615918386</v>
+        <v>0.3053804120259348</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2906608449890765</v>
+        <v>0.3075135102540595</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.368659084664592</v>
+        <v>-0.3524140916511804</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2965366002543024</v>
+        <v>0.3207472210641554</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.87735082333932</v>
+        <v>1.855403446894108</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9334758950691784</v>
+        <v>0.9489092199519249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.27404603093926</v>
+        <v>1.228738556504096</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.44597097856386</v>
+        <v>1.425020085384431</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6666554463894458</v>
+        <v>0.7268673197613029</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.782093287107535</v>
+        <v>1.809127141358047</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.406569225431696</v>
+        <v>1.381387951460521</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6100423917555833</v>
+        <v>0.6087066352703197</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.348401331550785</v>
+        <v>1.343441583539067</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1428880382093266</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3033815192526775</v>
+        <v>0.3033815192526777</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2923838697637037</v>
@@ -1411,7 +1411,7 @@
         <v>0.06571825815235947</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4116271226094902</v>
+        <v>0.4116271226094904</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1285424857914445</v>
+        <v>0.1461457201525771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1999177735511005</v>
+        <v>-0.2227039150554549</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06464449764376502</v>
+        <v>-0.09581668853076568</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0552134154508241</v>
+        <v>-0.0310698432876954</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2909532412462655</v>
+        <v>-0.2932574510314326</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1374603240797147</v>
+        <v>0.1037231163154628</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1158213852667983</v>
+        <v>0.1365767592606134</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1610222591896124</v>
+        <v>-0.1562263251125214</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1191376457727999</v>
+        <v>0.1422214946024312</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.328707872558904</v>
+        <v>1.280960201493625</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6445141520557529</v>
+        <v>0.6430533983925935</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8851327305929102</v>
+        <v>0.8561525274014391</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7937627099480137</v>
+        <v>0.7802487568855313</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3583989880578285</v>
+        <v>0.4051262904100286</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9799685947108773</v>
+        <v>0.9848537359543411</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7936916574058926</v>
+        <v>0.769650130527213</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3317753658344614</v>
+        <v>0.3457352592020831</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7595267305286826</v>
+        <v>0.7582023235681439</v>
       </c>
     </row>
     <row r="28">
